--- a/docs/会议纪要分析.xlsx
+++ b/docs/会议纪要分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhm\Desktop\研一下\软工实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhm\Desktop\研一下\软工实验\ApacheAssistant\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:CY6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="R3" sqref="R3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2677,6 +2677,10 @@
       </c>
       <c r="P2">
         <v>2</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(B2:P2)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:103" x14ac:dyDescent="0.2">
